--- a/data/prematurity/perinatal & stillbirths.xlsx
+++ b/data/prematurity/perinatal & stillbirths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snyimbili\Desktop\IHM\Zambia-E4H\data\prematurity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Documents/RTCZ/RTCZ/R/Zambia-E4H/data/prematurity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79F7758-352F-4FEE-A6B5-FBBB29EBB525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C79F7758-352F-4FEE-A6B5-FBBB29EBB525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D697ABA2-07FF-4F9F-B411-8DBDE355CC5A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -429,395 +429,395 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="18" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="18" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="18" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="18" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="18" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="18" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="18" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="18" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="18" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="18" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="18" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="18" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="18" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="18" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="18" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="18" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="18" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="18" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="18" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="18" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="18" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="18" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="18" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="18" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="18" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="18" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="18" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="18" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="18" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="18" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="18" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="18" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="18" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="18" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="18" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="18" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="18" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="18" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="18" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="18" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="18" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="18" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="18" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="18" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="18" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="18" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="18" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="18" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="18" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="18" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="18" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="18" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="18" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="18" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="18" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="18" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="18" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="18" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="18" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="18" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="18" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="18" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="18" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="18" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="18" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="18" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="18" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="18" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="18" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="18" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="18" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="18" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="18" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="18" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="18" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="18" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="18" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="18" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="18" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="18" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="18" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="18" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="18" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="18" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="18" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="18" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="18" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="18" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="18" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="18" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="18" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="18" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="18" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="18" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="18" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="18" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="18" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="18" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="18" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="18" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="18" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="18" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="18" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="18" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="18" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="18" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="18" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="18" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="18" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="18" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="18" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="18" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="18" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="18" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="18" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="18" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="18" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="18" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="18" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="18" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="18" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="18" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="18" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="18" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="18" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="18" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
@@ -831,10 +831,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -848,10 +848,10 @@
         <v>8.4681655810044134</v>
       </c>
       <c r="D2" s="2">
+        <v>4.8749737339777264</v>
+      </c>
+      <c r="E2" s="2">
         <v>4.6648455557890314</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4.8749737339777264</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
@@ -865,10 +865,10 @@
         <v>7.2912528335397635</v>
       </c>
       <c r="D3" s="2">
+        <v>5.3983314248323246</v>
+      </c>
+      <c r="E3" s="2">
         <v>4.4401860204248562</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5.3983314248323246</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
@@ -882,10 +882,10 @@
         <v>6.6219751471550028</v>
       </c>
       <c r="D4" s="2">
+        <v>4.762099411379987</v>
+      </c>
+      <c r="E4" s="2">
         <v>3.9036952256376716</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.762099411379987</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
@@ -899,10 +899,10 @@
         <v>8.2461834355090762</v>
       </c>
       <c r="D5" s="2">
+        <v>6.2267099410986901</v>
+      </c>
+      <c r="E5" s="2">
         <v>4.7121048202909002</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6.2267099410986901</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -916,10 +916,10 @@
         <v>6.3709296838131193</v>
       </c>
       <c r="D6" s="2">
+        <v>3.716375648890986</v>
+      </c>
+      <c r="E6" s="2">
         <v>2.6938807613654241</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.716375648890986</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
@@ -933,10 +933,10 @@
         <v>6.3986306115379126</v>
       </c>
       <c r="D7" s="2">
+        <v>4.5034947934709519</v>
+      </c>
+      <c r="E7" s="2">
         <v>3.1585596967782692</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.5034947934709519</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
@@ -950,10 +950,10 @@
         <v>7.9896393703925082</v>
       </c>
       <c r="D8" s="2">
+        <v>6.2163777644949194</v>
+      </c>
+      <c r="E8" s="2">
         <v>4.0645546921697555</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.2163777644949194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -967,10 +967,10 @@
         <v>7.4844978079702988</v>
       </c>
       <c r="D9" s="2">
+        <v>5.0949879537106515</v>
+      </c>
+      <c r="E9" s="2">
         <v>4.0483431415142777</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5.0949879537106515</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
@@ -984,10 +984,10 @@
         <v>7.4802053077627031</v>
       </c>
       <c r="D10" s="2">
+        <v>5.6499423069271479</v>
+      </c>
+      <c r="E10" s="2">
         <v>4.1777742410376799</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5.6499423069271479</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
@@ -1001,10 +1001,10 @@
         <v>10.398613518197575</v>
       </c>
       <c r="D11" s="2">
+        <v>4.4856764196146397</v>
+      </c>
+      <c r="E11" s="2">
         <v>3.4865939443368337</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4.4856764196146397</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -1018,10 +1018,10 @@
         <v>9.0033594624860012</v>
       </c>
       <c r="D12" s="2">
+        <v>4.0089585666293388</v>
+      </c>
+      <c r="E12" s="2">
         <v>3.964165733482643</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.0089585666293388</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
@@ -1035,10 +1035,10 @@
         <v>8.0718082173654153</v>
       </c>
       <c r="D13" s="2">
+        <v>5.4032595990560841</v>
+      </c>
+      <c r="E13" s="2">
         <v>3.374280484308493</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5.4032595990560841</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
@@ -1052,10 +1052,10 @@
         <v>18.974776920987193</v>
       </c>
       <c r="D14" s="2">
+        <v>4.9735648757653648</v>
+      </c>
+      <c r="E14" s="2">
         <v>4.2839529392096631</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.9735648757653648</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
@@ -1069,10 +1069,10 @@
         <v>18.84916046070586</v>
       </c>
       <c r="D15" s="2">
+        <v>5.481289606364772</v>
+      </c>
+      <c r="E15" s="2">
         <v>4.0473657430963508</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5.481289606364772</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
@@ -1086,10 +1086,10 @@
         <v>15.988797391631483</v>
       </c>
       <c r="D16" s="2">
+        <v>4.9951929105881367</v>
+      </c>
+      <c r="E16" s="2">
         <v>3.6784684195126029</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.9951929105881367</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
@@ -1103,10 +1103,10 @@
         <v>20.039006408195633</v>
       </c>
       <c r="D17" s="2">
+        <v>5.6795044900233602</v>
+      </c>
+      <c r="E17" s="2">
         <v>3.8792087271480313</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5.6795044900233602</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
@@ -1120,10 +1120,10 @@
         <v>14.919902546301287</v>
       </c>
       <c r="D18" s="2">
+        <v>4.1827472456393782</v>
+      </c>
+      <c r="E18" s="2">
         <v>2.7381902071969124</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.1827472456393782</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
@@ -1137,10 +1137,10 @@
         <v>14.838426027698397</v>
       </c>
       <c r="D19" s="2">
+        <v>4.9681248626071666</v>
+      </c>
+      <c r="E19" s="2">
         <v>3.143548032534623</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4.9681248626071666</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
@@ -1154,10 +1154,10 @@
         <v>19.828043732087892</v>
       </c>
       <c r="D20" s="2">
+        <v>6.8145632098503341</v>
+      </c>
+      <c r="E20" s="2">
         <v>3.9910837490712239</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6.8145632098503341</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
@@ -1171,10 +1171,10 @@
         <v>16.232540581351454</v>
       </c>
       <c r="D21" s="2">
+        <v>5.2452762710854151</v>
+      </c>
+      <c r="E21" s="2">
         <v>3.7551409667997855</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5.2452762710854151</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
@@ -1188,10 +1188,10 @@
         <v>18.546503640609973</v>
       </c>
       <c r="D22" s="2">
+        <v>5.7307714952995896</v>
+      </c>
+      <c r="E22" s="2">
         <v>3.8074303770141111</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5.7307714952995896</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
@@ -1205,10 +1205,10 @@
         <v>15.423084196591793</v>
       </c>
       <c r="D23" s="2">
+        <v>4.7277846651677846</v>
+      </c>
+      <c r="E23" s="2">
         <v>3.3199554537622658</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4.7277846651677846</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
@@ -1222,10 +1222,10 @@
         <v>15.890902400883082</v>
       </c>
       <c r="D24" s="2">
+        <v>4.1854475209272373</v>
+      </c>
+      <c r="E24" s="2">
         <v>3.7715021617146536</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4.1854475209272373</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
@@ -1239,10 +1239,10 @@
         <v>14.24697538589904</v>
       </c>
       <c r="D25" s="2">
+        <v>5.2357113057989153</v>
+      </c>
+      <c r="E25" s="2">
         <v>2.9203170629954109</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5.2357113057989153</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.5">
@@ -1256,10 +1256,10 @@
         <v>15.499811233692689</v>
       </c>
       <c r="D26" s="2">
+        <v>5.2435085364318974</v>
+      </c>
+      <c r="E26" s="2">
         <v>2.9363647804018624</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5.2435085364318974</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
@@ -1273,10 +1273,10 @@
         <v>19.777992039358207</v>
       </c>
       <c r="D27" s="2">
+        <v>6.106455042151846</v>
+      </c>
+      <c r="E27" s="2">
         <v>3.9061534277732455</v>
-      </c>
-      <c r="E27" s="2">
-        <v>6.106455042151846</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
@@ -1290,10 +1290,10 @@
         <v>18.775730860398387</v>
       </c>
       <c r="D28" s="2">
+        <v>5.9051025075893042</v>
+      </c>
+      <c r="E28" s="2">
         <v>3.9090115191084127</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5.9051025075893042</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
@@ -1307,10 +1307,10 @@
         <v>13.76492095924293</v>
       </c>
       <c r="D29" s="2">
+        <v>4.5811377567480376</v>
+      </c>
+      <c r="E29" s="2">
         <v>2.7744918808474028</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4.5811377567480376</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
@@ -1324,10 +1324,10 @@
         <v>12.482576403769739</v>
       </c>
       <c r="D30" s="2">
+        <v>3.9528158611937503</v>
+      </c>
+      <c r="E30" s="2">
         <v>2.3716895167162502</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3.9528158611937503</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
@@ -1341,10 +1341,10 @@
         <v>15.736734739626533</v>
       </c>
       <c r="D31" s="2">
+        <v>4.2368131991302196</v>
+      </c>
+      <c r="E31" s="2">
         <v>3.1832141496110649</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4.2368131991302196</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
@@ -1358,10 +1358,10 @@
         <v>13.494120418960311</v>
       </c>
       <c r="D32" s="2">
+        <v>4.3266862295714006</v>
+      </c>
+      <c r="E32" s="2">
         <v>2.7630818000728254</v>
-      </c>
-      <c r="E32" s="2">
-        <v>4.3266862295714006</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
@@ -1375,10 +1375,10 @@
         <v>13.158926890492625</v>
       </c>
       <c r="D33" s="2">
+        <v>4.33401317853781</v>
+      </c>
+      <c r="E33" s="2">
         <v>3.1573580169438342</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4.33401317853781</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
@@ -1392,10 +1392,10 @@
         <v>15.958066394874782</v>
       </c>
       <c r="D34" s="2">
+        <v>4.7369442826635613</v>
+      </c>
+      <c r="E34" s="2">
         <v>3.9409823335274705</v>
-      </c>
-      <c r="E34" s="2">
-        <v>4.7369442826635613</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
@@ -1409,10 +1409,10 @@
         <v>13.094837733310914</v>
       </c>
       <c r="D35" s="2">
+        <v>3.8464772154027238</v>
+      </c>
+      <c r="E35" s="2">
         <v>2.8165461577265849</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3.8464772154027238</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
@@ -1426,10 +1426,10 @@
         <v>15.612836259839113</v>
       </c>
       <c r="D36" s="2">
+        <v>4.7357495026381802</v>
+      </c>
+      <c r="E36" s="2">
         <v>3.7842747167200068</v>
-      </c>
-      <c r="E36" s="2">
-        <v>4.7357495026381802</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
@@ -1443,10 +1443,10 @@
         <v>15.939528387149782</v>
       </c>
       <c r="D37" s="2">
+        <v>4.4367759428148883</v>
+      </c>
+      <c r="E37" s="2">
         <v>3.5946101388546547</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4.4367759428148883</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
@@ -1460,10 +1460,10 @@
         <v>12.034407371840713</v>
       </c>
       <c r="D38" s="2">
+        <v>4.5767525488833956</v>
+      </c>
+      <c r="E38" s="2">
         <v>2.2475124123980956</v>
-      </c>
-      <c r="E38" s="2">
-        <v>4.5767525488833956</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
@@ -1477,10 +1477,10 @@
         <v>12.885528560232354</v>
       </c>
       <c r="D39" s="2">
+        <v>3.9417269835415611</v>
+      </c>
+      <c r="E39" s="2">
         <v>2.8122262689594764</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3.9417269835415611</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
@@ -1494,10 +1494,10 @@
         <v>15.699599982794957</v>
       </c>
       <c r="D40" s="2">
+        <v>5.1830186244569658</v>
+      </c>
+      <c r="E40" s="2">
         <v>3.4625145167534086</v>
-      </c>
-      <c r="E40" s="2">
-        <v>5.1830186244569658</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
@@ -1511,10 +1511,10 @@
         <v>12.54400427788423</v>
       </c>
       <c r="D41" s="2">
+        <v>3.8099906421282475</v>
+      </c>
+      <c r="E41" s="2">
         <v>2.1612227619090061</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3.8099906421282475</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
@@ -1528,10 +1528,10 @@
         <v>11.338812025382296</v>
       </c>
       <c r="D42" s="2">
+        <v>3.578487464891293</v>
+      </c>
+      <c r="E42" s="2">
         <v>1.9972953292416518</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3.578487464891293</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
@@ -1545,10 +1545,10 @@
         <v>15.075063850993585</v>
       </c>
       <c r="D43" s="2">
+        <v>5.004256732905584</v>
+      </c>
+      <c r="E43" s="2">
         <v>3.4469154259847588</v>
-      </c>
-      <c r="E43" s="2">
-        <v>5.004256732905584</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.5">
@@ -1562,10 +1562,10 @@
         <v>14.920194309507288</v>
       </c>
       <c r="D44" s="2">
+        <v>4.8985590072253746</v>
+      </c>
+      <c r="E44" s="2">
         <v>3.2657060048169164</v>
-      </c>
-      <c r="E44" s="2">
-        <v>4.8985590072253746</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
@@ -1579,10 +1579,10 @@
         <v>15.118404322949779</v>
       </c>
       <c r="D45" s="2">
+        <v>4.5692943420216148</v>
+      </c>
+      <c r="E45" s="2">
         <v>3.0991735537190084</v>
-      </c>
-      <c r="E45" s="2">
-        <v>4.5692943420216148</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
@@ -1596,10 +1596,10 @@
         <v>11.968943194354821</v>
       </c>
       <c r="D46" s="2">
+        <v>3.7051685019046232</v>
+      </c>
+      <c r="E46" s="2">
         <v>2.7476530463562376</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3.7051685019046232</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.5">
@@ -1613,10 +1613,10 @@
         <v>9.6927462781121321</v>
       </c>
       <c r="D47" s="2">
+        <v>2.5129342202512932</v>
+      </c>
+      <c r="E47" s="2">
         <v>2.1117094287825995</v>
-      </c>
-      <c r="E47" s="2">
-        <v>2.5129342202512932</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">

--- a/data/prematurity/perinatal & stillbirths.xlsx
+++ b/data/prematurity/perinatal & stillbirths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Documents/RTCZ/RTCZ/R/Zambia-E4H/data/prematurity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\R project doc_E4H\E4H-Zambia\data\prematurity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C79F7758-352F-4FEE-A6B5-FBBB29EBB525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D697ABA2-07FF-4F9F-B411-8DBDE355CC5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34234F19-5819-4B74-B706-04319EA6C82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
